--- a/artfynd/A 43712-2023.xlsx
+++ b/artfynd/A 43712-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>66608565</v>
+        <v>89203963</v>
       </c>
       <c r="B2" t="n">
-        <v>96312</v>
+        <v>103265</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,44 +696,49 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>219798</v>
+        <v>221144</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>blomknopp</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Anebo, Sm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>554948.268402998</v>
+        <v>554966.0579228171</v>
       </c>
       <c r="R2" t="n">
-        <v>6277597.609480564</v>
+        <v>6277838.70098565</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -757,7 +762,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2017-07-08</t>
+          <t>2020-09-28</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -767,7 +772,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2017-07-08</t>
+          <t>2020-09-28</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -781,33 +786,33 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Vägkant</t>
-        </is>
-      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Eric Lundén</t>
+          <t>Tobias Ivarsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Eric Lundén</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Tobias Ivarsson, Jenny Ivarsson, Hugo Ivarsson</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Kalkbarrskogsinventering i Kalmar län 2020-2021</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89203963</v>
+        <v>66608565</v>
       </c>
       <c r="B3" t="n">
-        <v>103265</v>
+        <v>96312</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -820,49 +825,44 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221144</v>
+        <v>219798</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
+          <t>(L.) Crantz</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>blomknopp</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Anebo, Sm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>554966.0579228171</v>
+        <v>554948.268402998</v>
       </c>
       <c r="R3" t="n">
-        <v>6277838.70098565</v>
+        <v>6277597.609480564</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2017-07-08</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2017-07-08</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -910,26 +910,26 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Vägkant</t>
+        </is>
+      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Tobias Ivarsson</t>
+          <t>Eric Lundén</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Tobias Ivarsson, Jenny Ivarsson, Hugo Ivarsson</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>Kalkbarrskogsinventering i Kalmar län 2020-2021</t>
-        </is>
-      </c>
+          <t>Eric Lundén</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 43712-2023.xlsx
+++ b/artfynd/A 43712-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89203963</v>
+        <v>66608565</v>
       </c>
       <c r="B2" t="n">
-        <v>103265</v>
+        <v>96312</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,49 +696,44 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221144</v>
+        <v>219798</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+          <t>(L.) Crantz</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>blomknopp</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Anebo, Sm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>554966.0579228171</v>
+        <v>554948.268402998</v>
       </c>
       <c r="R2" t="n">
-        <v>6277838.70098565</v>
+        <v>6277597.609480564</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -762,7 +757,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2017-07-08</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -772,7 +767,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2017-07-08</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -786,33 +781,33 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Vägkant</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Tobias Ivarsson</t>
+          <t>Eric Lundén</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Tobias Ivarsson, Jenny Ivarsson, Hugo Ivarsson</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Kalkbarrskogsinventering i Kalmar län 2020-2021</t>
-        </is>
-      </c>
+          <t>Eric Lundén</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>66608565</v>
+        <v>89203963</v>
       </c>
       <c r="B3" t="n">
-        <v>96312</v>
+        <v>103265</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -825,44 +820,49 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219798</v>
+        <v>221144</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>blomknopp</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Anebo, Sm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>554948.268402998</v>
+        <v>554966.0579228171</v>
       </c>
       <c r="R3" t="n">
-        <v>6277597.609480564</v>
+        <v>6277838.70098565</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2017-07-08</t>
+          <t>2020-09-28</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2017-07-08</t>
+          <t>2020-09-28</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -910,26 +910,26 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>Vägkant</t>
-        </is>
-      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Eric Lundén</t>
+          <t>Tobias Ivarsson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Eric Lundén</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Tobias Ivarsson, Jenny Ivarsson, Hugo Ivarsson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Kalkbarrskogsinventering i Kalmar län 2020-2021</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
